--- a/wwwroot/reports/providedservicesofauto/providedserviceofauto.xlsx
+++ b/wwwroot/reports/providedservicesofauto/providedserviceofauto.xlsx
@@ -30,7 +30,7 @@
     <t>Список оказанных услуг</t>
   </si>
   <si>
-    <t>для автомобиля Mercedes-Benz W140 M232MM33rus</t>
+    <t>для автомобиля bmw W140 P333PP33rus</t>
   </si>
   <si>
     <t>№</t>
@@ -48,16 +48,16 @@
     <t>Дата и время оказания услуги</t>
   </si>
   <si>
-    <t>Полировка кузова</t>
-  </si>
-  <si>
-    <t>Есин Никита Дмитриевич</t>
-  </si>
-  <si>
-    <t>16000</t>
-  </si>
-  <si>
-    <t>07.05.2024 21:50:00</t>
+    <t>Химчистка салона</t>
+  </si>
+  <si>
+    <t>Карасёв Эдуард Фёдорович</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>02.05.2024 2:19:00</t>
   </si>
   <si>
     <t>Стоимость:</t>
